--- a/tests/data.gui/test/emf/dsp.4/kev.emf.constants.data.xlsx
+++ b/tests/data.gui/test/emf/dsp.4/kev.emf.constants.data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -351,15 +351,9 @@
     <t xml:space="preserve">observation</t>
   </si>
   <si>
-    <t xml:space="preserve">-251.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">deviaton</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">constant</t>
   </si>
   <si>
@@ -490,6 +484,9 @@
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.990791</t>
   </si>
 </sst>
 </file>
@@ -945,12 +942,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.990790678348238</v>
+      <c r="A2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1408,8 +1405,8 @@
       <c r="G2" t="n">
         <v>-253.8</v>
       </c>
-      <c r="H2" t="s">
-        <v>109</v>
+      <c r="H2" t="n">
+        <v>-251.3</v>
       </c>
       <c r="I2" t="n">
         <v>-247.8</v>
@@ -1468,7 +1465,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1488,8 +1485,8 @@
       <c r="G3" t="n">
         <v>0.1</v>
       </c>
-      <c r="H3" t="s">
-        <v>111</v>
+      <c r="H3" t="n">
+        <v>0.1</v>
       </c>
       <c r="I3" t="n">
         <v>0.1</v>
@@ -1562,7 +1559,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1573,24 +1570,24 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2204,76 +2201,76 @@
         <v>83</v>
       </c>
       <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>124</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>125</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>130</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>132</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>133</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>134</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>135</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>136</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>137</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>138</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>139</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2">
@@ -2358,7 +2355,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2458,76 +2455,76 @@
         <v>83</v>
       </c>
       <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>124</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>125</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>130</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>132</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>133</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>134</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>135</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>136</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>137</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>138</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>139</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2">
@@ -2612,7 +2609,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2706,16 +2703,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>144</v>
-      </c>
-      <c r="C1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2">
@@ -2723,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -2737,13 +2734,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -2751,13 +2748,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
@@ -2765,13 +2762,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -2779,13 +2776,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
@@ -2793,13 +2790,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -2807,13 +2804,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
